--- a/src/main/resources/testdata/loginpage.xlsx
+++ b/src/main/resources/testdata/loginpage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\intellijProjects\NopCommerce_dec9am\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92789475-0168-4614-9F1C-96B51F23EFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7117C2-A9DF-4D11-B319-E834E33084AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,10 +42,10 @@
     <t>xyz@yourstore.com</t>
   </si>
   <si>
-    <t>yzz@yourstore.com</t>
-  </si>
-  <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>abcd123</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,10 +451,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -470,7 +470,7 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{EA417A17-7837-43E7-8CD2-5D8E76CE22C3}"/>
     <hyperlink ref="A3:A10" r:id="rId2" display="admin@yourstore.com" xr:uid="{1C853A9C-086C-4ABE-9C58-6D4357907857}"/>
     <hyperlink ref="A10" r:id="rId3" xr:uid="{47BF9771-A2B2-444C-A083-8B52CFC6C9F8}"/>
-    <hyperlink ref="A9" r:id="rId4" xr:uid="{4EC1B1C4-7A1C-4C46-B480-E9312561E69D}"/>
+    <hyperlink ref="A9" r:id="rId4" display="yzz@yourstore.com" xr:uid="{4EC1B1C4-7A1C-4C46-B480-E9312561E69D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
